--- a/db/112519 picked up return 5 fail.xlsx
+++ b/db/112519 picked up return 5 fail.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bizcom\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bizcom\Desktop\Javafx-AWS-RDS\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{612FFED8-C6F9-43A2-BDB7-5A496C964A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B85238D-15DF-472A-A3C9-A53F7C2D4598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10890" xr2:uid="{7F35E829-6252-42DC-9E12-EE3F7721D75E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7F35E829-6252-42DC-9E12-EE3F7721D75E}"/>
   </bookViews>
   <sheets>
     <sheet name="Serial Number" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,8 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,11 +405,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FADC9D8-4439-4A9B-BFEE-E5FCADD7F8A9}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -435,4 +442,118 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C361E3-8074-4B86-8B2F-D9D39A523D74}">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>